--- a/proposal/Gantt_Chart.xlsx
+++ b/proposal/Gantt_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lavanyasajwan/Documents/University/2020/engr489/proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CCD9A1-297C-4244-B057-4DBEDAEF7D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F88F9B-E332-344A-9419-CA5671EA377D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{5B8873C0-244D-1840-9642-81B9045DD635}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -168,13 +168,16 @@
   </si>
   <si>
     <t>Produce biblography of grounded theory studies</t>
+  </si>
+  <si>
+    <t>Outline the interview questions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +202,13 @@
     <font>
       <sz val="12"/>
       <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -277,7 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -286,10 +295,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DE8173-A154-3B41-A158-D1CF82AF31A1}">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,113 +632,113 @@
     <col min="17" max="31" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AF1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -759,7 +771,7 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -797,13 +809,13 @@
       <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -835,21 +847,21 @@
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
+      <c r="A5" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="3"/>
@@ -873,16 +885,16 @@
       <c r="AH5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
+      <c r="A6" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -911,15 +923,15 @@
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
+      <c r="A7" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -949,16 +961,16 @@
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
+      <c r="A8" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -987,8 +999,8 @@
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>10</v>
+      <c r="A9" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -996,7 +1008,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1025,8 +1037,8 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>4</v>
+      <c r="A10" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1034,11 +1046,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1063,8 +1075,8 @@
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>5</v>
+      <c r="A11" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1073,16 +1085,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1101,8 +1113,8 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>6</v>
+      <c r="A12" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1110,22 +1122,22 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1139,8 +1151,8 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>7</v>
+      <c r="A13" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1149,22 +1161,22 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="4"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
@@ -1177,8 +1189,8 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
+      <c r="A14" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1187,24 +1199,24 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -1215,8 +1227,8 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>26</v>
+      <c r="A15" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1240,12 +1252,12 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -1253,8 +1265,8 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>24</v>
+      <c r="A16" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1281,18 +1293,18 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
+      <c r="A17" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1322,15 +1334,15 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>27</v>
+      <c r="A18" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1362,13 +1374,13 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="2"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>10</v>
+      <c r="A19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1401,8 +1413,46 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="9"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
